--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316147.864804413</v>
+        <v>1313890.84289533</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>220.8342930951817</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>158.9322597098727</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,13 +832,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.0735562860866</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>167.1638115488395</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>194.0270836661628</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>20.06784918479925</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>150.1586035345783</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>39.06754378872161</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>102.1258721536509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>115.4804327218743</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056166</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1664,7 +1664,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>237.7758231955452</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>274.9043901003476</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.59657533957218</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>208.0592079660155</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>107.4815339940122</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>12.25405350150972</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,13 +2296,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>29.68660991466641</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>52.23490948285909</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>16.75292058756649</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>238.2640572754485</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>88.23797643592192</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>137.5963061221015</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>119.8962688081999</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.69526338627226</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935318</v>
+        <v>178.7757248935314</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345254</v>
       </c>
       <c r="G37" t="n">
-        <v>133.8465613678652</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259153</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>188.712770043036</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877633</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172074</v>
+        <v>285.155582917207</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>251.0813880354221</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>285.4667430481852</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006313</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>73.75339804477701</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3721,13 +3721,13 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179978</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335017</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3913,10 +3913,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1106.127218649458</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>695.1413138598505</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4465,25 +4465,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1395.511531185079</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>1026.549014244667</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D5" t="n">
-        <v>1026.549014244667</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="E5" t="n">
-        <v>640.7607616464231</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="F5" t="n">
-        <v>229.7748568568156</v>
+        <v>794.2251008249057</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>376.2612927230925</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733125</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2545.473733912588</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2545.473733912588</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2291.711948550679</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1960.649061207109</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.880405936995</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1234.414647675915</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,43 +4887,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,52 +5039,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,28 +5118,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,7 +5157,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>589.1512925299511</v>
+        <v>776.4995292919518</v>
       </c>
       <c r="C13" t="n">
-        <v>485.9938459101016</v>
+        <v>607.5633463640449</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9938459101016</v>
+        <v>457.4467069517092</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>309.5336133693161</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1475.55471505717</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>1475.55471505717</v>
       </c>
       <c r="W13" t="n">
-        <v>998.7893082582082</v>
+        <v>1186.137545020209</v>
       </c>
       <c r="X13" t="n">
-        <v>770.7997573601908</v>
+        <v>958.1479941221916</v>
       </c>
       <c r="Y13" t="n">
-        <v>770.7997573601908</v>
+        <v>958.1479941221916</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,13 +5261,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>3944.053400686432</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4338.82776704361</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5309,7 +5309,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261303</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.6138567886371</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607302</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5467,19 +5467,19 @@
         <v>1866.513008862231</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1626.335409674812</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.725653781988</v>
+        <v>1626.335409674812</v>
       </c>
       <c r="W16" t="n">
-        <v>1045.044451660424</v>
+        <v>1336.918239637851</v>
       </c>
       <c r="X16" t="n">
-        <v>817.0549007624069</v>
+        <v>1108.928688739834</v>
       </c>
       <c r="Y16" t="n">
-        <v>596.2623216188767</v>
+        <v>888.1361095963035</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,52 +5513,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.6138567886371</v>
+        <v>658.1567207524342</v>
       </c>
       <c r="C19" t="n">
-        <v>245.6776738607302</v>
+        <v>489.2205378245271</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570253</v>
+        <v>1096.30708777774</v>
       </c>
       <c r="X19" t="n">
-        <v>673.382774659008</v>
+        <v>868.3175368797226</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154777</v>
+        <v>658.1567207524342</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5820,22 +5820,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.9312815832558</v>
+        <v>425.758342305718</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>425.758342305718</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>275.6417028933823</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>275.6417028933823</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>275.6417028933823</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>107.9388662681012</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>107.9388662681012</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570256</v>
+        <v>874.5404723472654</v>
       </c>
       <c r="X22" t="n">
-        <v>901.3723255570256</v>
+        <v>646.5509214492481</v>
       </c>
       <c r="Y22" t="n">
-        <v>680.5797464134955</v>
+        <v>425.758342305718</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5993,46 +5993,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>755.2936629429141</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="C25" t="n">
-        <v>586.3574800150072</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="D25" t="n">
-        <v>586.3574800150072</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1385.724257814701</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>1385.724257814701</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>1157.734706916684</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y25" t="n">
-        <v>936.9421277731539</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.7069501484257</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C28" t="n">
-        <v>555.7069501484257</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>405.5903107360899</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>405.5903107360899</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>258.7003632381795</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>258.7003632381795</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4831764560373</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1475.554715057173</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1186.137545020213</v>
+        <v>950.1187306692907</v>
       </c>
       <c r="X28" t="n">
-        <v>958.1479941221955</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="Y28" t="n">
-        <v>737.3554149786654</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K29" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858345</v>
+        <v>675.7429179653791</v>
       </c>
       <c r="C31" t="n">
-        <v>481.6968904858345</v>
+        <v>506.8067350374722</v>
       </c>
       <c r="D31" t="n">
-        <v>331.5802510734986</v>
+        <v>506.8067350374722</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374722</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374722</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121912</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208125</v>
+        <v>1595.590682874127</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838518</v>
+        <v>1306.173512837166</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858345</v>
+        <v>1078.183961939149</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858345</v>
+        <v>857.3913827956188</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K32" t="n">
         <v>1106.569146563073</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.3805104860112</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="C34" t="n">
-        <v>413.3805104860112</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736755</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736755</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736755</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1870.792695007459</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1870.792695007459</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1649.026079576985</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1359.923212702629</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V34" t="n">
-        <v>1105.238724496742</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W34" t="n">
-        <v>815.8215544597811</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X34" t="n">
-        <v>815.8215544597811</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y34" t="n">
-        <v>595.0289753162509</v>
+        <v>481.6968904858352</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6962,13 +6962,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7038,16 +7038,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.7791019271849</v>
+        <v>241.3840574125615</v>
       </c>
       <c r="C37" t="n">
-        <v>375.909843533021</v>
+        <v>241.3840574125615</v>
       </c>
       <c r="D37" t="n">
-        <v>375.909843533021</v>
+        <v>241.3840574125615</v>
       </c>
       <c r="E37" t="n">
-        <v>375.909843533021</v>
+        <v>241.3840574125615</v>
       </c>
       <c r="F37" t="n">
-        <v>375.909843533021</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>240.7112966967937</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308519</v>
       </c>
       <c r="K37" t="n">
-        <v>346.762235315249</v>
+        <v>346.7622353152501</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992666</v>
+        <v>664.367726499268</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834339</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275725</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.39982593166</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100838</v>
+        <v>1886.053019100842</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988878</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988878</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1774.090048349448</v>
       </c>
       <c r="T37" t="n">
-        <v>1774.090048349444</v>
+        <v>1553.390357452717</v>
       </c>
       <c r="U37" t="n">
-        <v>1486.054106008831</v>
+        <v>1265.354415112104</v>
       </c>
       <c r="V37" t="n">
-        <v>1232.436542336687</v>
+        <v>1011.73685143996</v>
       </c>
       <c r="W37" t="n">
-        <v>944.0862968334689</v>
+        <v>723.386605936743</v>
       </c>
       <c r="X37" t="n">
-        <v>944.0862968334689</v>
+        <v>496.4639795724689</v>
       </c>
       <c r="Y37" t="n">
-        <v>724.3606422236817</v>
+        <v>421.9655977090579</v>
       </c>
     </row>
     <row r="38">
@@ -7184,13 +7184,13 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7354,13 +7354,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195773</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7394,13 +7394,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7552,13 +7552,13 @@
         <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,19 +7591,19 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
         <v>1276.596863849073</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,16 +7649,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7786,13 +7786,13 @@
         <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.53663776704403</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>176.2173930448432</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>65.12094894497689</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.94061530105691</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23707,13 +23707,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>48.43601501006765</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>11.6186082362434</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.2354048423651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>10.52544538607933</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>59.76528710461562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>84.0983669083284</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>116.7473527319028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>113.7908987761692</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>79.5994998222716</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>48.25894106114248</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>58.19598621064724</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>114.5413372017265</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>25.52477921473134</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.236889283775085</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.190565810222</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>147.5592177298065</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>145.3777073581633</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>31.12299160275747</v>
+        <v>164.9695529706223</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259149</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143261</v>
+        <v>95.29616512143222</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164183</v>
+        <v>87.87589738164145</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877637</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>143.7750000189119</v>
       </c>
     </row>
     <row r="38">
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>950497.7775739206</v>
+        <v>950497.7775739207</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>950497.7775739206</v>
+        <v>950497.7775739207</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>950497.7775739206</v>
+        <v>950497.7775739207</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>950497.7775739207</v>
+        <v>950497.7775739206</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>951207.9091583715</v>
+        <v>951207.9091583717</v>
       </c>
     </row>
     <row r="14">
@@ -26314,19 +26314,19 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>456644.0549200308</v>
+      </c>
+      <c r="F2" t="n">
+        <v>456644.054920031</v>
+      </c>
+      <c r="G2" t="n">
         <v>456644.0549200309</v>
-      </c>
-      <c r="F2" t="n">
-        <v>456644.0549200308</v>
-      </c>
-      <c r="G2" t="n">
-        <v>456644.054920031</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200309</v>
@@ -26335,25 +26335,25 @@
         <v>456644.054920031</v>
       </c>
       <c r="J2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="K2" t="n">
         <v>456644.054920031</v>
-      </c>
-      <c r="K2" t="n">
-        <v>456644.0549200309</v>
       </c>
       <c r="L2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="M2" t="n">
-        <v>456991.5661209323</v>
+        <v>456991.5661209324</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696693</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414978</v>
+        <v>36735.10506414933</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918996</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918996</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
@@ -26442,19 +26442,19 @@
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811455</v>
+        <v>18496.05294811467</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26485,10 +26485,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955465</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26528,40 +26528,40 @@
         <v>205891.2527514256</v>
       </c>
       <c r="E6" t="n">
-        <v>-385265.3696462793</v>
+        <v>-385332.5651365052</v>
       </c>
       <c r="F6" t="n">
-        <v>342112.0443471272</v>
+        <v>342044.8488569019</v>
       </c>
       <c r="G6" t="n">
-        <v>342112.0443471274</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="H6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="I6" t="n">
-        <v>342112.0443471274</v>
+        <v>342044.8488569014</v>
       </c>
       <c r="J6" t="n">
-        <v>165688.8251545344</v>
+        <v>165621.6296643086</v>
       </c>
       <c r="K6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="L6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="M6" t="n">
-        <v>211535.877523594</v>
+        <v>211470.1929516328</v>
       </c>
       <c r="N6" t="n">
-        <v>301425.5882963024</v>
+        <v>301425.588296303</v>
       </c>
       <c r="O6" t="n">
         <v>338160.6933604521</v>
       </c>
       <c r="P6" t="n">
-        <v>338160.6933604518</v>
+        <v>338160.6933604521</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859254</v>
@@ -26762,10 +26762,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018703</v>
+        <v>45.91888133018667</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>133.8487485255013</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>254.8519103109223</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>239.7106137347084</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>156.7589612155176</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>92.49591467042822</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.7163208359958</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,16 +27901,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>24.2571092743932</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>213.0700995351064</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405517</v>
+        <v>1.056255288405871</v>
       </c>
     </row>
     <row r="38">
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
@@ -36051,13 +36051,13 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789363</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,7 +36525,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
@@ -36756,7 +36756,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147172</v>
+        <v>46.63467190147212</v>
       </c>
       <c r="K37" t="n">
-        <v>207.103914832725</v>
+        <v>207.1039148327255</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586036</v>
+        <v>320.813627458604</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818897</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.913201455946</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110456</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335163</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629915</v>
+        <v>79.45049382629952</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,16 +37552,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>728.5192284577547</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,7 +38017,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38029,7 +38029,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
